--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miel\Documents\FH\SS17\ITP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miel\Documents\FH\SS17\ITP\TimeAid\ITP_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>DATUM</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>2.Teambesprechung (Arbeitsaufteilung)</t>
+  </si>
+  <si>
+    <t>17:00-17:30</t>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+  </si>
+  <si>
+    <t>3.Teambesprechung (App-Details)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -517,8 +526,8 @@
       <c r="A4" s="3">
         <v>42806</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.70833333333333337</v>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -526,16 +535,32 @@
       <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="3">
+        <v>42808</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>

--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>DATUM</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>3.Teambesprechung (App-Details)</t>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+  </si>
+  <si>
+    <t>1. Betreuerbesprechung</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -563,12 +569,24 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3">
+        <v>42815</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>

--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miel\Documents\FH\SS17\ITP\TimeAid\ITP_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\Documents\fh 16-17\itp\TimeAid\ITP_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>DATUM</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>1. Betreuerbesprechung</t>
+  </si>
+  <si>
+    <t>14:41-17:12</t>
+  </si>
+  <si>
+    <t>Arbeitspaketen + PSP</t>
+  </si>
+  <si>
+    <t>Bjorna</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -589,12 +598,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3">
+        <v>42828</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>

--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\Documents\fh 16-17\itp\TimeAid\ITP_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miel\Documents\FH\SS17\ITP\TimeAid\ITP_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>DATUM</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Bjorna</t>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+  </si>
+  <si>
+    <t>4. Teambesprechung (Spezifikation)</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -599,36 +605,48 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3">
+        <v>42821</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
         <v>42828</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="10"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -701,7 +719,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -729,7 +747,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="12.5">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -786,7 +804,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="12.5">
-      <c r="A29" s="6"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="5"/>
@@ -810,7 +828,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="12.5">
-      <c r="A32" s="3"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="5"/>
@@ -986,7 +1004,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="12.5">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="5"/>
@@ -994,7 +1012,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="12.5">
-      <c r="A55" s="7"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="5"/>
@@ -1050,7 +1068,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="12.5">
-      <c r="A62" s="3"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="5"/>
@@ -1058,7 +1076,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="12.5">
-      <c r="A63" s="7"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="5"/>
@@ -1073,6 +1091,14 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
+    <row r="65" spans="1:6" ht="12.5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miel\Documents\FH\SS17\ITP\TimeAid\ITP_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITP\TimeAid\ITP_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>DATUM</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>4. Teambesprechung (Spezifikation)</t>
+  </si>
+  <si>
+    <t>22:15-23:45</t>
+  </si>
+  <si>
+    <t>Technische Spezifikation</t>
+  </si>
+  <si>
+    <t>Andre</t>
   </si>
 </sst>
 </file>
@@ -160,7 +169,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,12 +484,12 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -644,12 +653,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3">
+        <v>42827</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
@@ -755,7 +776,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="12.5">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -763,7 +784,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="12.5">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -771,7 +792,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="12.5">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -779,7 +800,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="12.5">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -787,7 +808,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="12.5">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -795,7 +816,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="12.5">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -803,7 +824,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -811,7 +832,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -819,7 +840,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5">
+    <row r="31" spans="1:6" ht="12.75">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -827,7 +848,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5">
+    <row r="32" spans="1:6" ht="12.75">
       <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -835,7 +856,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5">
+    <row r="33" spans="1:6" ht="12.75">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -843,7 +864,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5">
+    <row r="34" spans="1:6" ht="12.75">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -851,7 +872,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5">
+    <row r="35" spans="1:6" ht="12.75">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -859,7 +880,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5">
+    <row r="36" spans="1:6" ht="12.75">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -867,7 +888,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5">
+    <row r="37" spans="1:6" ht="12.75">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -875,7 +896,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5">
+    <row r="38" spans="1:6" ht="12.75">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -883,7 +904,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5">
+    <row r="39" spans="1:6" ht="12.75">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -891,7 +912,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="12.5">
+    <row r="40" spans="1:6" ht="12.75">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -899,7 +920,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5">
+    <row r="41" spans="1:6" ht="12.75">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -907,7 +928,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5">
+    <row r="42" spans="1:6" ht="12.75">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -915,7 +936,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5">
+    <row r="43" spans="1:6" ht="12.75">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -923,7 +944,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5">
+    <row r="44" spans="1:6" ht="12.75">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -931,7 +952,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="12.5">
+    <row r="45" spans="1:6" ht="12.75">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -939,7 +960,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="12.5">
+    <row r="46" spans="1:6" ht="12.75">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -947,7 +968,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="12.5">
+    <row r="47" spans="1:6" ht="12.75">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -955,7 +976,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="12.5">
+    <row r="48" spans="1:6" ht="12.75">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -963,7 +984,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="12.5">
+    <row r="49" spans="1:6" ht="12.75">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -971,7 +992,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="12.5">
+    <row r="50" spans="1:6" ht="12.75">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -979,7 +1000,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="12.5">
+    <row r="51" spans="1:6" ht="12.75">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -987,7 +1008,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="12.5">
+    <row r="52" spans="1:6" ht="12.75">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -995,7 +1016,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="12.5">
+    <row r="53" spans="1:6" ht="12.75">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1003,7 +1024,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="12.5">
+    <row r="54" spans="1:6" ht="12.75">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1011,7 +1032,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="12.5">
+    <row r="55" spans="1:6" ht="12.75">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1019,7 +1040,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="12.5">
+    <row r="56" spans="1:6" ht="12.75">
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1027,7 +1048,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="12.5">
+    <row r="57" spans="1:6" ht="12.75">
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1035,7 +1056,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="12.5">
+    <row r="58" spans="1:6" ht="12.75">
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1043,7 +1064,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="12.5">
+    <row r="59" spans="1:6" ht="12.75">
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1051,7 +1072,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="12.5">
+    <row r="60" spans="1:6" ht="12.75">
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1059,7 +1080,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="12.5">
+    <row r="61" spans="1:6" ht="12.75">
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1067,7 +1088,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="12.5">
+    <row r="62" spans="1:6" ht="12.75">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1075,7 +1096,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="12.5">
+    <row r="63" spans="1:6" ht="12.75">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1083,7 +1104,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="12.5">
+    <row r="64" spans="1:6" ht="12.75">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1091,7 +1112,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="12.5">
+    <row r="65" spans="1:6" ht="12.75">
       <c r="A65" s="7"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>

--- a/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
+++ b/ITP_Dokumente/STUNDEN DOKUMENTATION.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\Documents\fh 16-17\itp\TimeAid\ITP_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Dropbox\UNI\ITP\GIT\TimeAid\ITP_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4092"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>DATUM</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Bjorna</t>
+  </si>
+  <si>
+    <t>10:00-10:45</t>
+  </si>
+  <si>
+    <t>Projektbeschreibung</t>
+  </si>
+  <si>
+    <t>Johannes</t>
   </si>
 </sst>
 </file>
@@ -469,12 +478,12 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -618,12 +627,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3">
+        <v>42829</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -729,7 +750,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="12.5">
+    <row r="22" spans="1:6" ht="13.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -737,7 +758,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="12.5">
+    <row r="23" spans="1:6" ht="13.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -745,7 +766,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="12.5">
+    <row r="24" spans="1:6" ht="13.2">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -753,7 +774,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="12.5">
+    <row r="25" spans="1:6" ht="13.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -761,7 +782,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="12.5">
+    <row r="26" spans="1:6" ht="13.2">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -769,7 +790,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="12.5">
+    <row r="27" spans="1:6" ht="13.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -777,7 +798,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="12.5">
+    <row r="28" spans="1:6" ht="13.2">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -785,7 +806,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5">
+    <row r="29" spans="1:6" ht="13.2">
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -793,7 +814,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5">
+    <row r="30" spans="1:6" ht="13.2">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -801,7 +822,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5">
+    <row r="31" spans="1:6" ht="13.2">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -809,7 +830,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5">
+    <row r="32" spans="1:6" ht="13.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -817,7 +838,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5">
+    <row r="33" spans="1:6" ht="13.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -825,7 +846,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5">
+    <row r="34" spans="1:6" ht="13.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -833,7 +854,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5">
+    <row r="35" spans="1:6" ht="13.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -841,7 +862,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5">
+    <row r="36" spans="1:6" ht="13.2">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -849,7 +870,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5">
+    <row r="37" spans="1:6" ht="13.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -857,7 +878,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5">
+    <row r="38" spans="1:6" ht="13.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -865,7 +886,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="12.5">
+    <row r="39" spans="1:6" ht="13.2">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -873,7 +894,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="12.5">
+    <row r="40" spans="1:6" ht="13.2">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -881,7 +902,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="12.5">
+    <row r="41" spans="1:6" ht="13.2">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -889,7 +910,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="12.5">
+    <row r="42" spans="1:6" ht="13.2">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -897,7 +918,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="12.5">
+    <row r="43" spans="1:6" ht="13.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -905,7 +926,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="12.5">
+    <row r="44" spans="1:6" ht="13.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -913,7 +934,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="12.5">
+    <row r="45" spans="1:6" ht="13.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -921,7 +942,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="12.5">
+    <row r="46" spans="1:6" ht="13.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -929,7 +950,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="12.5">
+    <row r="47" spans="1:6" ht="13.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -937,7 +958,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="12.5">
+    <row r="48" spans="1:6" ht="13.2">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -945,7 +966,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="12.5">
+    <row r="49" spans="1:6" ht="13.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -953,7 +974,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="12.5">
+    <row r="50" spans="1:6" ht="13.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -961,7 +982,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="12.5">
+    <row r="51" spans="1:6" ht="13.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -969,7 +990,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="12.5">
+    <row r="52" spans="1:6" ht="13.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -977,7 +998,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="12.5">
+    <row r="53" spans="1:6" ht="13.2">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -985,7 +1006,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="12.5">
+    <row r="54" spans="1:6" ht="13.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -993,7 +1014,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="12.5">
+    <row r="55" spans="1:6" ht="13.2">
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1001,7 +1022,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="12.5">
+    <row r="56" spans="1:6" ht="13.2">
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1009,7 +1030,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="12.5">
+    <row r="57" spans="1:6" ht="13.2">
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1017,7 +1038,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="12.5">
+    <row r="58" spans="1:6" ht="13.2">
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1025,7 +1046,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="12.5">
+    <row r="59" spans="1:6" ht="13.2">
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1033,7 +1054,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="12.5">
+    <row r="60" spans="1:6" ht="13.2">
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1041,7 +1062,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="12.5">
+    <row r="61" spans="1:6" ht="13.2">
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1049,7 +1070,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="12.5">
+    <row r="62" spans="1:6" ht="13.2">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1057,7 +1078,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="12.5">
+    <row r="63" spans="1:6" ht="13.2">
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1065,7 +1086,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="12.5">
+    <row r="64" spans="1:6" ht="13.2">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
